--- a/money.xlsx
+++ b/money.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5E6F66-DF86-4ACA-AED8-30F558105058}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BAFBE7-A5FF-4D81-B7C9-F606EE0A16DA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>id</t>
   </si>
   <si>
     <t xml:space="preserve">amount </t>
+  </si>
+  <si>
+    <t>1000000O</t>
   </si>
 </sst>
 </file>
@@ -61,8 +64,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -346,7 +352,7 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,8 +556,8 @@
       <c r="A25">
         <v>4</v>
       </c>
-      <c r="B25">
-        <v>10000000</v>
+      <c r="B25" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
